--- a/data/data_dictionary.xlsx
+++ b/data/data_dictionary.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanamann/Documents/GitHub/reg1-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49F4C43F-D150-EC46-A37E-FB3A361CD5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8087D0-DAEF-A248-BC8E-0E8308091393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36620" yWindow="3660" windowWidth="28040" windowHeight="17440" xr2:uid="{AC8162A9-0966-DB43-9175-1706B1AAE314}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{AC8162A9-0966-DB43-9175-1706B1AAE314}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
+    <sheet name="AIC Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="97">
   <si>
     <t>Type</t>
   </si>
@@ -53,9 +54,6 @@
     <t>BMI</t>
   </si>
   <si>
-    <t>Family History</t>
-  </si>
-  <si>
     <t>Categorical</t>
   </si>
   <si>
@@ -144,14 +142,211 @@
   </si>
   <si>
     <t>MTRANS</t>
+  </si>
+  <si>
+    <t>Residual standard error: 5.511 on 2093 degrees of freedom</t>
+  </si>
+  <si>
+    <t>Multiple R-squared:  0.5307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Adjusted R-squared:  0.5268 </t>
+  </si>
+  <si>
+    <t>F-statistic: 139.2 on 17 and 2093 DF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value: &lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Std. Error</t>
+  </si>
+  <si>
+    <t>t value</t>
+  </si>
+  <si>
+    <t>Pr(&gt;|t|)</t>
+  </si>
+  <si>
+    <t>(Intercept)</t>
+  </si>
+  <si>
+    <t>&lt; 2e-16</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>family_history_with_overweight_Yes</t>
+  </si>
+  <si>
+    <t>FAVC_Yes</t>
+  </si>
+  <si>
+    <t>CAEC_Sometimes</t>
+  </si>
+  <si>
+    <t>CAEC_Frequently</t>
+  </si>
+  <si>
+    <t>CAEC_Always</t>
+  </si>
+  <si>
+    <t>SCC_Yes</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>CALC_Sometimes</t>
+  </si>
+  <si>
+    <t>CALC_Frequently</t>
+  </si>
+  <si>
+    <t>MTRANS_Walking</t>
+  </si>
+  <si>
+    <t>MTRANS_Automobile</t>
+  </si>
+  <si>
+    <t>MTRANS_other</t>
+  </si>
+  <si>
+    <t>FamilyHistory_Yes</t>
+  </si>
+  <si>
+    <t>Residual standard error: 5.518 on 2097 degrees of freedom</t>
+  </si>
+  <si>
+    <t>Multiple R-squared:  0.5285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Adjusted R-squared:  0.5256 </t>
+  </si>
+  <si>
+    <t>F-statistic: 180.8 on 13 and 2097 DF</t>
+  </si>
+  <si>
+    <t>Residual standard error: 5.514 on 2089 degrees of freedom</t>
+  </si>
+  <si>
+    <t>Multiple R-squared:  0.531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Adjusted R-squared:  0.5262 </t>
+  </si>
+  <si>
+    <t>F-statistic: 112.6 on 21 and 2089 DF</t>
+  </si>
+  <si>
+    <t>GenderMale</t>
+  </si>
+  <si>
+    <t>FAVCYes</t>
+  </si>
+  <si>
+    <t>CAECSometimes</t>
+  </si>
+  <si>
+    <t>CAECFrequently</t>
+  </si>
+  <si>
+    <t>CAECAlways</t>
+  </si>
+  <si>
+    <t>SMOKEYes</t>
+  </si>
+  <si>
+    <t>SCCYes</t>
+  </si>
+  <si>
+    <t>CALCSometimes</t>
+  </si>
+  <si>
+    <t>CALCFrequently</t>
+  </si>
+  <si>
+    <t>CALCAlways</t>
+  </si>
+  <si>
+    <t>MTRANSWalking</t>
+  </si>
+  <si>
+    <t>MTRANSAutomobile</t>
+  </si>
+  <si>
+    <t>MTRANSMotorbike</t>
+  </si>
+  <si>
+    <t>MTRANSBike</t>
+  </si>
+  <si>
+    <t>family_history_with_overweight</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Snacking</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Family_History</t>
+  </si>
+  <si>
+    <t>High_Caloric_Food</t>
+  </si>
+  <si>
+    <t>Vegetable_Intake</t>
+  </si>
+  <si>
+    <t>Number_of_Meals</t>
+  </si>
+  <si>
+    <t>Water_Intake</t>
+  </si>
+  <si>
+    <t>Calorie_Monitoring</t>
+  </si>
+  <si>
+    <t>Physical_Activity</t>
+  </si>
+  <si>
+    <t>Screen_Time</t>
+  </si>
+  <si>
+    <t>Alcohol_Consumption</t>
+  </si>
+  <si>
+    <t>Transportation_Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -180,7 +375,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -199,22 +394,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,193 +760,1397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E48A77-B78E-0342-B67C-848782A9D1BF}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="41.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BE3F4D-FD39-B046-882E-ED935F2563C4}">
+  <dimension ref="A1:N56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="9" max="9" width="48.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="8">
+        <v>21.835100000000001</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="D3" s="8">
+        <v>23.890999999999998</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3">
+        <v>23.110299999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.50229999999999997</v>
+      </c>
+      <c r="L3">
+        <v>46.005000000000003</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.16189999999999999</v>
+      </c>
+      <c r="D4" s="8">
+        <v>11.037000000000001</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.1608</v>
+      </c>
+      <c r="L4">
+        <v>11.090999999999999</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" s="8">
+        <v>1.9080999999999999</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.12570000000000001</v>
+      </c>
+      <c r="D5" s="8">
+        <v>15.176</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>1.9392</v>
+      </c>
+      <c r="K5">
+        <v>0.12540000000000001</v>
+      </c>
+      <c r="L5">
+        <v>15.465999999999999</v>
+      </c>
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.1265</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5.8999999999999998E-5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <v>0.53269999999999995</v>
+      </c>
+      <c r="K6">
+        <v>0.12559999999999999</v>
+      </c>
+      <c r="L6">
+        <v>4.24</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2.3300000000000001E-5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.21590000000000001</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.1308</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1.651</v>
+      </c>
+      <c r="E7" s="8">
+        <v>9.8879999999999996E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7">
+        <v>-0.89490000000000003</v>
+      </c>
+      <c r="K7">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="L7">
+        <v>-6.9569999999999999</v>
+      </c>
+      <c r="M7" s="7">
+        <v>4.6300000000000003E-12</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="8">
+        <v>-0.93630000000000002</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.13239999999999999</v>
+      </c>
+      <c r="D8" s="8">
+        <v>-7.0709999999999997</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2.0900000000000002E-12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8">
+        <v>-1.0124</v>
+      </c>
+      <c r="K8">
+        <v>0.13009999999999999</v>
+      </c>
+      <c r="L8">
+        <v>-7.782</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1.11E-14</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="8">
+        <v>-1.0659000000000001</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.13120000000000001</v>
+      </c>
+      <c r="D9" s="8">
+        <v>-8.1259999999999994</v>
+      </c>
+      <c r="E9" s="8">
+        <v>7.4999999999999996E-16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9">
+        <v>6.6729000000000003</v>
+      </c>
+      <c r="K9">
+        <v>0.34110000000000001</v>
+      </c>
+      <c r="L9">
+        <v>19.561</v>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="8">
+        <v>6.5015999999999998</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.35060000000000002</v>
+      </c>
+      <c r="D10" s="8">
+        <v>18.542000000000002</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10">
+        <v>2.1770999999999998</v>
+      </c>
+      <c r="K10">
+        <v>0.40210000000000001</v>
+      </c>
+      <c r="L10">
+        <v>5.4139999999999997</v>
+      </c>
+      <c r="M10" s="7">
+        <v>6.87E-8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2.1796000000000002</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.4027</v>
+      </c>
+      <c r="D11" s="8">
+        <v>5.4119999999999999</v>
+      </c>
+      <c r="E11" s="8">
+        <v>6.9399999999999999E-8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11">
+        <v>-6.8021000000000003</v>
+      </c>
+      <c r="K11">
+        <v>0.40560000000000002</v>
+      </c>
+      <c r="L11">
+        <v>-16.771000000000001</v>
+      </c>
+      <c r="M11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1.3778999999999999</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="E12" s="8">
+        <v>9.9589999999999998E-2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12">
+        <v>-3.3944000000000001</v>
+      </c>
+      <c r="K12">
+        <v>0.78410000000000002</v>
+      </c>
+      <c r="L12">
+        <v>-4.3289999999999997</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1.5699999999999999E-5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="8">
+        <v>-5.4447000000000001</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="D13" s="8">
+        <v>-6.0510000000000002</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1.6999999999999999E-9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13">
+        <v>-1.9476</v>
+      </c>
+      <c r="K13">
+        <v>0.59989999999999999</v>
+      </c>
+      <c r="L13">
+        <v>-3.2469999999999999</v>
+      </c>
+      <c r="M13">
+        <v>1.1900000000000001E-3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="8">
+        <v>-2.1642999999999999</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1.121</v>
+      </c>
+      <c r="D14" s="8">
+        <v>-1.931</v>
+      </c>
+      <c r="E14" s="8">
+        <v>5.3659999999999999E-2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14">
+        <v>1.7476</v>
+      </c>
+      <c r="K14">
+        <v>0.27229999999999999</v>
+      </c>
+      <c r="L14">
+        <v>6.4180000000000001</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1.7000000000000001E-10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="8">
+        <v>-1.9661999999999999</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.60109999999999997</v>
+      </c>
+      <c r="D15" s="8">
+        <v>-3.2709999999999999</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1.09E-3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15">
+        <v>-2.4236</v>
+      </c>
+      <c r="K15">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="L15">
+        <v>-3.1059999999999999</v>
+      </c>
+      <c r="M15">
+        <v>1.92E-3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1.8562000000000001</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.27960000000000002</v>
+      </c>
+      <c r="D16" s="8">
+        <v>6.6390000000000002</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4.0200000000000001E-11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16">
+        <v>-4.3071999999999999</v>
+      </c>
+      <c r="K16">
+        <v>0.37659999999999999</v>
+      </c>
+      <c r="L16">
+        <v>-11.438000000000001</v>
+      </c>
+      <c r="M16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1.1695</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.70689999999999997</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1.6539999999999999</v>
+      </c>
+      <c r="E17" s="8">
+        <v>9.8199999999999996E-2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="8">
+        <v>-2.4668999999999999</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.78039999999999998</v>
+      </c>
+      <c r="D18" s="8">
+        <v>-3.161</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="8">
+        <v>-4.3883999999999999</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.378</v>
+      </c>
+      <c r="D19" s="8">
+        <v>-11.611000000000001</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="8">
+        <v>-1.9713000000000001</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1.3254999999999999</v>
+      </c>
+      <c r="D20" s="8">
+        <v>-1.4870000000000001</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.13711999999999999</v>
+      </c>
+      <c r="I20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>7.3040900000000004</v>
+      </c>
+      <c r="C31">
+        <v>1.2680499999999999</v>
+      </c>
+      <c r="D31">
+        <v>5.76</v>
+      </c>
+      <c r="E31" s="7">
+        <v>9.6500000000000004E-9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32">
+        <v>-1.9189999999999999E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.26989999999999997</v>
+      </c>
+      <c r="D32">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.94332000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B33">
+        <v>0.28249999999999997</v>
+      </c>
+      <c r="C33">
+        <v>2.5729999999999999E-2</v>
+      </c>
+      <c r="D33">
+        <v>10.98</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34">
+        <v>6.4991300000000001</v>
+      </c>
+      <c r="C34">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="D34">
+        <v>18.442</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35">
+        <v>2.1516299999999999</v>
+      </c>
+      <c r="C35">
+        <v>0.40458</v>
+      </c>
+      <c r="D35">
+        <v>5.3179999999999996</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1.1600000000000001E-7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <v>3.1788099999999999</v>
+      </c>
+      <c r="C36">
+        <v>0.22109000000000001</v>
+      </c>
+      <c r="D36">
+        <v>14.378</v>
+      </c>
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>0.62258000000000002</v>
+      </c>
+      <c r="C37">
+        <v>0.15273999999999999</v>
+      </c>
+      <c r="D37">
+        <v>4.0759999999999996</v>
+      </c>
+      <c r="E37" s="7">
+        <v>4.7500000000000003E-5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38">
+        <v>1.3743099999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.83757000000000004</v>
+      </c>
+      <c r="D38">
+        <v>1.641</v>
+      </c>
+      <c r="E38">
+        <v>0.10098</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39">
+        <v>-5.4886100000000004</v>
+      </c>
+      <c r="C39">
+        <v>0.90308999999999995</v>
+      </c>
+      <c r="D39">
+        <v>-6.0780000000000003</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1.45E-9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40">
+        <v>-2.1547100000000001</v>
+      </c>
+      <c r="C40">
+        <v>1.12209</v>
+      </c>
+      <c r="D40">
+        <v>-1.92</v>
+      </c>
+      <c r="E40">
+        <v>5.4960000000000002E-2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41">
+        <v>-0.21976999999999999</v>
+      </c>
+      <c r="C41">
+        <v>0.85911999999999999</v>
+      </c>
+      <c r="D41">
+        <v>-0.25600000000000001</v>
+      </c>
+      <c r="E41">
+        <v>0.79812000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B42">
+        <v>0.36015000000000003</v>
+      </c>
+      <c r="C42">
+        <v>0.22117999999999999</v>
+      </c>
+      <c r="D42">
+        <v>1.6279999999999999</v>
+      </c>
+      <c r="E42">
+        <v>0.10362</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43">
+        <v>-1.96262</v>
+      </c>
+      <c r="C43">
+        <v>0.60457000000000005</v>
+      </c>
+      <c r="D43">
+        <v>-3.246</v>
+      </c>
+      <c r="E43">
+        <v>1.1900000000000001E-3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B44">
+        <v>-1.11443</v>
+      </c>
+      <c r="C44">
+        <v>0.16128000000000001</v>
+      </c>
+      <c r="D44">
+        <v>-6.91</v>
+      </c>
+      <c r="E44" s="7">
+        <v>6.4100000000000004E-12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
+      <c r="B45">
+        <v>-1.83026</v>
+      </c>
+      <c r="C45">
+        <v>0.22639999999999999</v>
+      </c>
+      <c r="D45">
+        <v>-8.0839999999999996</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1.0499999999999999E-15</v>
+      </c>
+      <c r="F45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46">
+        <v>1.8652299999999999</v>
+      </c>
+      <c r="C46">
+        <v>0.28031</v>
+      </c>
+      <c r="D46">
+        <v>6.6539999999999999</v>
+      </c>
+      <c r="E46" s="7">
+        <v>3.63E-11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47">
+        <v>1.1966600000000001</v>
+      </c>
+      <c r="C47">
+        <v>0.71031</v>
+      </c>
+      <c r="D47">
+        <v>1.6850000000000001</v>
+      </c>
+      <c r="E47">
+        <v>9.2189999999999994E-2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48">
+        <v>5.7661499999999997</v>
+      </c>
+      <c r="C48">
+        <v>5.5944500000000001</v>
+      </c>
+      <c r="D48">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="E48">
+        <v>0.30280000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49">
+        <v>-2.5799500000000002</v>
+      </c>
+      <c r="C49">
+        <v>0.78890000000000005</v>
+      </c>
+      <c r="D49">
+        <v>-3.27</v>
+      </c>
+      <c r="E49">
+        <v>1.09E-3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50">
+        <v>-4.3958300000000001</v>
+      </c>
+      <c r="C50">
+        <v>0.38068000000000002</v>
+      </c>
+      <c r="D50">
+        <v>-11.547000000000001</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51">
+        <v>-1.4345399999999999</v>
+      </c>
+      <c r="C51">
+        <v>1.69011</v>
+      </c>
+      <c r="D51">
+        <v>-0.84899999999999998</v>
+      </c>
+      <c r="E51">
+        <v>0.39610000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52">
+        <v>-2.8071299999999999</v>
+      </c>
+      <c r="C52">
+        <v>2.11517</v>
+      </c>
+      <c r="D52">
+        <v>-1.327</v>
+      </c>
+      <c r="E52">
+        <v>0.18461</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
